--- a/public/application/files/jasper/templates/ordentablajeria.xlsx
+++ b/public/application/files/jasper/templates/ordentablajeria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36760" yWindow="0" windowWidth="25360" windowHeight="14440" tabRatio="198"/>
+    <workbookView xWindow="9080" yWindow="0" windowWidth="25040" windowHeight="14120" tabRatio="198"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>{ordentab:preico}</t>
-  </si>
-  <si>
     <t>Tablajeado</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>Orden de tablajeria</t>
+  </si>
+  <si>
+    <t>{ordentab:preciokg}</t>
   </si>
 </sst>
 </file>
@@ -339,18 +339,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,6 +347,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -862,7 +862,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -872,49 +872,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="29.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="29.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="A3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="22.25" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
@@ -930,10 +930,10 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="22.25" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
@@ -949,12 +949,12 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="22.25" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -968,10 +968,10 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="22.25" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
@@ -987,10 +987,10 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="22.25" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1006,25 +1006,25 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="18">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="22.25" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="22.25" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1033,17 +1033,17 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="22.25" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="22.25" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1052,17 +1052,17 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="22.25" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="22.25" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -1090,10 +1090,10 @@
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1124,12 +1124,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="34">
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="A8:B8"/>
@@ -1137,17 +1137,6 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:E12"/>
@@ -1157,7 +1146,18 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
